--- a/my_book.xlsx
+++ b/my_book.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +491,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>22-10-2022</t>
+          <t>30-10-2022</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -511,13 +511,13 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>К7 Ушинского</t>
+          <t>К9 Данченко</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ул. Ушинского, 40</t>
+          <t>ул. Сергея Данченко 34</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -537,12 +537,12 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Помідори свіжі</t>
+          <t>Сир Дор Блю</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="K4" t="inlineStr"/>
     </row>
@@ -566,13 +566,243 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>20</v>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Огірок свіжий</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>кг</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>45</v>
+      </c>
+      <c r="J5" t="n">
+        <v>45</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Банан</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>кг</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>35</v>
+      </c>
+      <c r="J6" t="n">
+        <v>35</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Банан</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>кг</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>35</v>
+      </c>
+      <c r="J7" t="n">
+        <v>70</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>K5 Деміївська</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ТОВ БЛК2</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ул. Деміївська, 43а</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Сир Дор Блю</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>кг</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>100</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Банан</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>кг</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>35</v>
+      </c>
+      <c r="J11" t="n">
+        <v>35</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Сир Дор Блю</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>кг</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>100</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/my_book.xlsx
+++ b/my_book.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,47 +436,47 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>Дата</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Підприємство .Назва</t>
+          <t xml:space="preserve"> .Назва</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Підприємство .ФОП</t>
+          <t xml:space="preserve"> .ФОП</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Підприємство .Адреса</t>
+          <t xml:space="preserve"> .Адреса</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Продукт .Найменування</t>
+          <t>ʼ.Найменування</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Продукт .Кількість</t>
+          <t>ʼ.Кількість</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Продукт .Одиниця виміру</t>
+          <t>ʼ.Одиниця виміру</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Продукт .Ціна, грн</t>
+          <t>ʼ.Ціна, грн</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Продукт .Сума, грн</t>
+          <t>ʼ.Сума, грн</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -491,7 +491,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>30-10-2022</t>
+          <t>06-11-2022</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -511,13 +511,13 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>К9 Данченко</t>
+          <t>К7 Ушинского</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ул. Сергея Данченко 34</t>
+          <t>ул. Ушинского, 40</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -542,7 +542,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>44313</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -554,7 +554,7 @@
         <v>100</v>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>4431300</v>
       </c>
       <c r="K4" t="inlineStr"/>
     </row>
@@ -566,243 +566,13 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Огірок свіжий</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>кг</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>45</v>
-      </c>
-      <c r="J5" t="n">
-        <v>45</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Банан</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>кг</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>35</v>
-      </c>
-      <c r="J6" t="n">
-        <v>35</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Банан</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>кг</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>35</v>
-      </c>
-      <c r="J7" t="n">
-        <v>70</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>K5 Деміївська</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ТОВ БЛК2</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ул. Деміївська, 43а</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Сир Дор Блю</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>кг</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>100</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Банан</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>кг</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>35</v>
-      </c>
-      <c r="J11" t="n">
-        <v>35</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Сир Дор Блю</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>кг</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>100</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>235</v>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>4431300</v>
       </c>
     </row>
   </sheetData>
